--- a/Data/Sample_Data/README_Sample_Data.xlsx
+++ b/Data/Sample_Data/README_Sample_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daurin/Projects/HyperCP/Sample_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daurin/GitRepos/HyperCP/Data/Sample_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE22E7A-15B6-3740-821E-B6D8A6AE18FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EB8744-E4CD-2B40-AFF2-24EBCB52E976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1100" windowWidth="30380" windowHeight="18300" xr2:uid="{43498CA6-A785-6C4D-A107-6504C485FA78}"/>
+    <workbookView xWindow="480" yWindow="760" windowWidth="30380" windowHeight="10660" xr2:uid="{43498CA6-A785-6C4D-A107-6504C485FA78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>KORUS_KR2016_NASA_20160320_060000.RAW</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Matched to pySAS. Both should be 5 mins</t>
+  </si>
+  <si>
+    <t>8166=Li, 8329=Es, 8595=Lt</t>
   </si>
 </sst>
 </file>
@@ -158,9 +161,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,7 +201,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -304,7 +307,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,7 +449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA93EF65-C207-594A-8B97-AF2D791326E2}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,6 +523,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
